--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76636C0D-78D5-47D6-BC96-6E28019B7DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="日志格式化" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -195,13 +195,96 @@
   </si>
   <si>
     <t>return FPaths::ProjectSavedDir() + TEXT("Logs/");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间的格式化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString FOutputDeviceHelper::FormatLogLine( ELogVerbosity::Type Verbosity, const class FName&amp; Category, const TCHAR* Message /*= nullptr*/, ELogTimes::Type LogTime /*= ELogTimes::None*/, const double Time /*= -1.0*/ )</t>
+  </si>
+  <si>
+    <t>const bool bShowCategory = GPrintLogCategory &amp;&amp; Category != NAME_None;</t>
+  </si>
+  <si>
+    <t>FString Format;</t>
+  </si>
+  <si>
+    <t>switch (LogTime)</t>
+  </si>
+  <si>
+    <t>case ELogTimes::SinceGStartTime:</t>
+  </si>
+  <si>
+    <t>const double RealTime = Time == -1.0f ? FPlatformTime::Seconds() - GStartTime : Time;</t>
+  </si>
+  <si>
+    <t>Format = FString::Printf( TEXT( "[%07.2f][%3llu]" ), RealTime, GFrameCounter % 1000);</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>case ELogTimes::UTC:</t>
+  </si>
+  <si>
+    <t>Format = FString::Printf(TEXT("[%s][%3llu]"), *FDateTime::UtcNow().ToString(TEXT("%Y.%m.%d-%H.%M.%S:%s")), GFrameCounter % 1000);</t>
+  </si>
+  <si>
+    <t>case ELogTimes::Local:</t>
+  </si>
+  <si>
+    <t>Format = FString::Printf(TEXT("[%s][%3llu]"), *FDateTime::Now().ToString(TEXT("%Y.%m.%d-%H.%M.%S:%s")), GFrameCounter % 1000);</t>
+  </si>
+  <si>
+    <t>case ELogTimes::Timecode:</t>
+  </si>
+  <si>
+    <t>Format = FString::Printf(TEXT("[%s][%3llu]"), *FApp::GetTimecode().ToString(), GFrameCounter % 1000);</t>
+  </si>
+  <si>
+    <t>default:</t>
+  </si>
+  <si>
+    <t>if (bShowCategory)</t>
+  </si>
+  <si>
+    <t>Format += Category.ToString();</t>
+  </si>
+  <si>
+    <t>Format += TEXT(": ");</t>
+  </si>
+  <si>
+    <t>if (GPrintLogVerbosity &amp;&amp; Verbosity != ELogVerbosity::Log)</t>
+  </si>
+  <si>
+    <t>Format += VerbosityToString(Verbosity);</t>
+  </si>
+  <si>
+    <t>else if (GPrintLogVerbosity &amp;&amp; Verbosity != ELogVerbosity::Log)</t>
+  </si>
+  <si>
+    <t>#if !HACK_HEADER_GENERATOR</t>
+  </si>
+  <si>
+    <t>if (Message)</t>
+  </si>
+  <si>
+    <t>Format += Message;</t>
+  </si>
+  <si>
+    <t>return Format;</t>
+  </si>
+  <si>
+    <t>！！！可以支持线程ID的写入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,10 +635,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -823,4 +906,357 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:V59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B261EB-F0E1-4341-B0D6-4096C55D2110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="日志格式化" sheetId="2" r:id="rId2"/>
+    <sheet name="写入流程" sheetId="3" r:id="rId3"/>
+    <sheet name="扩展" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -278,13 +281,140 @@
   </si>
   <si>
     <t>！！！可以支持线程ID的写入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutputDeviceFile.cpp</t>
+  </si>
+  <si>
+    <t>void FAsyncWriter::FlushArchiveAndResetTimer()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// This should be the one and only place where we flush because we want the flush to happen only on the </t>
+  </si>
+  <si>
+    <t>// async writer thread (if threading is enabled)</t>
+  </si>
+  <si>
+    <t>Ar.Flush();</t>
+  </si>
+  <si>
+    <t>LastArchiveFlushTime = FPlatformTime::Seconds();</t>
+  </si>
+  <si>
+    <t>void FArchiveFileWriterGeneric::Flush()</t>
+  </si>
+  <si>
+    <t>if (FlushBuffer() &amp;&amp; Handle)</t>
+  </si>
+  <si>
+    <t>Handle-&gt;Flush();</t>
+  </si>
+  <si>
+    <t>virtual bool Flush(const bool bFullFlush = false) override</t>
+  </si>
+  <si>
+    <t>各个平台的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindowsPlatformFile.cpp</t>
+  </si>
+  <si>
+    <t>整个文件的FLUSH是异步的，就是在异步线程操作的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAsyncWriter::FAsyncWriter(FArchive&amp; InAr)</t>
+  </si>
+  <si>
+    <t>: Thread(nullptr)</t>
+  </si>
+  <si>
+    <t>, Ar(InAr)</t>
+  </si>
+  <si>
+    <t>, BufferStartPos(0)</t>
+  </si>
+  <si>
+    <t>, BufferEndPos(0)</t>
+  </si>
+  <si>
+    <t>, LastArchiveFlushTime(0.0)</t>
+  </si>
+  <si>
+    <t>Buffer.AddUninitialized(InitialBufferSize);</t>
+  </si>
+  <si>
+    <t>float CommandLineInterval = 0.0;</t>
+  </si>
+  <si>
+    <t>if (FParse::Value(FCommandLine::Get(), TEXT("LOGFLUSHINTERVAL="), CommandLineInterval))</t>
+  </si>
+  <si>
+    <t>GLogFlushIntervalSec = CommandLineInterval;</t>
+  </si>
+  <si>
+    <t>if (FPlatformProcess::SupportsMultithreading())</t>
+  </si>
+  <si>
+    <t>FString WriterName = FString::Printf(TEXT("FAsyncWriter_%s"), *FPaths::GetBaseFilename(Ar.GetArchiveName()));</t>
+  </si>
+  <si>
+    <t>FPlatformAtomics::InterlockedExchangePtr((void**)&amp;Thread, FRunnableThread::Create(this, *WriterName, 0, TPri_BelowNormal));</t>
+  </si>
+  <si>
+    <t>！！！异步线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32 FAsyncWriter::Run()</t>
+  </si>
+  <si>
+    <t>while (StopTaskCounter.GetValue() == 0)</t>
+  </si>
+  <si>
+    <t>if (SerializeRequestCounter.GetValue() &gt; 0)</t>
+  </si>
+  <si>
+    <t>SerializeBufferToArchive();</t>
+  </si>
+  <si>
+    <t>else if ((FPlatformTime::Seconds() - LastArchiveFlushTime) &gt; GetLogFlushIntervalSec() )</t>
+  </si>
+  <si>
+    <t>FlushArchiveAndResetTimer();</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>FPlatformProcess::SleepNoStats(0.01f);</t>
+  </si>
+  <si>
+    <t>return 0;</t>
+  </si>
+  <si>
+    <t>！！！刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些情况下，崩溃的时候会导致日志没有办法及时写入，造成丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，就需要将日志的写入单线程话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！日志字符串的写入是加了锁的，所以不会有问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -635,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -909,10 +1039,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -1259,4 +1389,561 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE46BEE7-F6CA-4468-8FB3-9B211D4C60B5}">
+  <dimension ref="B3:S71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:P50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="S47" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACBD152-FA50-4AFC-9158-0F011644CA3F}">
+  <dimension ref="B4:P29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B261EB-F0E1-4341-B0D6-4096C55D2110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEFB1E3-5994-4591-B922-A578EF53CD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="日志格式化" sheetId="2" r:id="rId2"/>
-    <sheet name="写入流程" sheetId="3" r:id="rId3"/>
-    <sheet name="扩展" sheetId="4" r:id="rId4"/>
+    <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="宏定义" sheetId="5" r:id="rId2"/>
+    <sheet name="日志格式化" sheetId="2" r:id="rId3"/>
+    <sheet name="写入流程" sheetId="3" r:id="rId4"/>
+    <sheet name="扩展" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -408,6 +409,35 @@
   </si>
   <si>
     <t>！！！日志字符串的写入是加了锁的，所以不会有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO_LOGGING</t>
+  </si>
+  <si>
+    <t>bUseLoggingInShipping</t>
+  </si>
+  <si>
+    <t>FORCELOGFLUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// first we do the config values</t>
+  </si>
+  <si>
+    <t>FConfigSection* RefTypes = GConfig-&gt;GetSectionPrivate(TEXT("Core.Log"), false, true, GEngineIni);</t>
+  </si>
+  <si>
+    <t>if (RefTypes != NULL)</t>
+  </si>
+  <si>
+    <t>for( FConfigSectionMap::TIterator It(*RefTypes); It; ++It )</t>
+  </si>
+  <si>
+    <t>ProcessCmdString(It.Key().ToString() + TEXT(" ") + It.Value().GetValue(), true);</t>
+  </si>
+  <si>
+    <t>配置开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,6 +1069,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3928A6AC-5804-4E8E-A541-865634486027}">
+  <dimension ref="B4:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:V59"/>
   <sheetViews>
@@ -1391,7 +1503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE46BEE7-F6CA-4468-8FB3-9B211D4C60B5}">
   <dimension ref="B3:S71"/>
   <sheetViews>
@@ -1764,11 +1876,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACBD152-FA50-4AFC-9158-0F011644CA3F}">
   <dimension ref="B4:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEFB1E3-5994-4591-B922-A578EF53CD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1600283-1CA2-423D-AB84-D25D3A26C88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="133">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -415,29 +415,54 @@
     <t>NO_LOGGING</t>
   </si>
   <si>
+    <t>FORCELOGFLUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// first we do the config values</t>
+  </si>
+  <si>
+    <t>FConfigSection* RefTypes = GConfig-&gt;GetSectionPrivate(TEXT("Core.Log"), false, true, GEngineIni);</t>
+  </si>
+  <si>
+    <t>if (RefTypes != NULL)</t>
+  </si>
+  <si>
+    <t>for( FConfigSectionMap::TIterator It(*RefTypes); It; ++It )</t>
+  </si>
+  <si>
+    <t>ProcessCmdString(It.Key().ToString() + TEXT(" ") + It.Value().GetValue(), true);</t>
+  </si>
+  <si>
+    <t>配置开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIPPING包开启日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Core.Log]</t>
+  </si>
+  <si>
+    <t>global=log</t>
+  </si>
+  <si>
+    <t>LogTemp=log</t>
+  </si>
+  <si>
+    <t>LogCheckComponents=none</t>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bUseLoggingInShipping</t>
-  </si>
-  <si>
-    <t>FORCELOGFLUSH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// first we do the config values</t>
-  </si>
-  <si>
-    <t>FConfigSection* RefTypes = GConfig-&gt;GetSectionPrivate(TEXT("Core.Log"), false, true, GEngineIni);</t>
-  </si>
-  <si>
-    <t>if (RefTypes != NULL)</t>
-  </si>
-  <si>
-    <t>for( FConfigSectionMap::TIterator It(*RefTypes); It; ++It )</t>
-  </si>
-  <si>
-    <t>ProcessCmdString(It.Key().ToString() + TEXT(" ") + It.Value().GetValue(), true);</t>
-  </si>
-  <si>
-    <t>配置开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -1070,17 +1095,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3928A6AC-5804-4E8E-A541-865634486027}">
-  <dimension ref="B4:G29"/>
+  <dimension ref="B3:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
@@ -1088,59 +1118,89 @@
         <v>117</v>
       </c>
     </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F25" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="G27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:V59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -1507,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE46BEE7-F6CA-4468-8FB3-9B211D4C60B5}">
   <dimension ref="B3:S71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:P50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1600283-1CA2-423D-AB84-D25D3A26C88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A585881-403F-4DAD-B673-70D1D57F0168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="141">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -438,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SHIPPING包开启日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[Core.Log]</t>
   </si>
   <si>
@@ -463,6 +459,36 @@
   </si>
   <si>
     <t>bUseLoggingInShipping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIPPING包开启日志；该变量控制是否开启宏USE_LOGGING_IN_SHIPPING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ifndef NO_LOGGING</t>
+  </si>
+  <si>
+    <t>#define NO_LOGGING</t>
+  </si>
+  <si>
+    <t>!USE_LOGGING_IN_SHIPPING</t>
+  </si>
+  <si>
+    <t>if (Rules.bUseLoggingInShipping)</t>
+  </si>
+  <si>
+    <t>GlobalCompileEnvironment.Definitions.Add("USE_LOGGING_IN_SHIPPING=1");</t>
+  </si>
+  <si>
+    <t>GlobalCompileEnvironment.Definitions.Add("USE_LOGGING_IN_SHIPPING=0");</t>
+  </si>
+  <si>
+    <t>是否记录日志的宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！就是上面的那个宏定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,7 +849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -1095,112 +1121,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3928A6AC-5804-4E8E-A541-865634486027}">
-  <dimension ref="B3:G36"/>
+  <dimension ref="B3:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F25" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -1567,7 +1659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE46BEE7-F6CA-4468-8FB3-9B211D4C60B5}">
   <dimension ref="B3:S71"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A585881-403F-4DAD-B673-70D1D57F0168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BA1A18-B53B-4498-A15B-889A01BB03D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="日志格式化" sheetId="2" r:id="rId3"/>
     <sheet name="写入流程" sheetId="3" r:id="rId4"/>
     <sheet name="扩展" sheetId="4" r:id="rId5"/>
+    <sheet name="日志打印" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="163">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -489,6 +490,78 @@
   </si>
   <si>
     <t>！！！就是上面的那个宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOutputDeviceDebug</t>
+  </si>
+  <si>
+    <t>打印控制台的；一般就直接在调用线程打印了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部使用FOutputDeviceDebug::Serialize里调用FOutputDeviceHelper::FormatLogLine，进行参数拼接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOutputDeviceFile</t>
+  </si>
+  <si>
+    <t>日志打印，需要在主线程里面调用才能打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOutputDeviceFile::Serialize( const TCHAR* Data, ELogVerbosity::Type Verbosity, const class FName&amp; Category, const double Time )</t>
+  </si>
+  <si>
+    <t>FOutputDeviceHelper::FormatCastAndSerializeLine(*AsyncWriter, Data, Verbosity, Category, Time, bSuppressEventTag, bAutoEmitLineTerminator);</t>
+  </si>
+  <si>
+    <t>void FOutputDeviceHelper::FormatCastAndSerializeLine(FArchive&amp; Output, const TCHAR* Data, ELogVerbosity::Type Verbosity, const class FName&amp; Category, const double Time, bool bSuppressEventTag, bool bAutoEmitLineTerminator)</t>
+  </si>
+  <si>
+    <t>FString Prefix;</t>
+  </si>
+  <si>
+    <t>if (!bSuppressEventTag)</t>
+  </si>
+  <si>
+    <t>Prefix = FormatLogLine(Verbosity, Category, nullptr, GPrintLogTimes, Time);</t>
+  </si>
+  <si>
+    <t>调用时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FOutputDeviceRedirector::SerializeImpl(const TCHAR* Data, ELogVerbosity::Type Verbosity, T&amp; Category, const double Time)</t>
+  </si>
+  <si>
+    <t>if (FPlatformTLS::GetCurrentThreadId() != MasterThreadID || LocalBufferedDevices.Num() == 0)</t>
+  </si>
+  <si>
+    <t>FScopeLock ScopeLock(&amp;BufferSynchronizationObject);</t>
+  </si>
+  <si>
+    <t>new(BufferedLines)FBufferedLine(Data, Category, Verbosity, RealTime, BufferedLinesAllocator);</t>
+  </si>
+  <si>
+    <t>// Flush previously buffered lines from secondary threads.</t>
+  </si>
+  <si>
+    <t>InternalFlushThreadedLogs(LocalBufferedDevices, LocalUnbufferedDevices, true);</t>
+  </si>
+  <si>
+    <t>for (FOutputDevice* OutputDevice : LocalBufferedDevices)</t>
+  </si>
+  <si>
+    <t>OutputDevice-&gt;Serialize(Data, Verbosity, Category, RealTime);</t>
+  </si>
+  <si>
+    <t>！！！非主线程就插入队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程的话，就刷新缓存的日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3928A6AC-5804-4E8E-A541-865634486027}">
   <dimension ref="B3:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -2210,4 +2283,191 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955A7CD1-440D-4AB6-86B4-2730FC798C30}">
+  <dimension ref="B4:R41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="5:18" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BA1A18-B53B-4498-A15B-889A01BB03D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4876695-927E-443A-B307-98E0312ECF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,9 @@
     <sheet name="日志格式化" sheetId="2" r:id="rId3"/>
     <sheet name="写入流程" sheetId="3" r:id="rId4"/>
     <sheet name="扩展" sheetId="4" r:id="rId5"/>
-    <sheet name="日志打印" sheetId="6" r:id="rId6"/>
+    <sheet name="日志打印" sheetId="8" r:id="rId6"/>
+    <sheet name="LOG日志打印" sheetId="6" r:id="rId7"/>
+    <sheet name="Display日志打印" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="224">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -562,6 +564,201 @@
   </si>
   <si>
     <t>主线程的话，就刷新缓存的日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Output devices.</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("Init Output Devices");</t>
+  </si>
+  <si>
+    <t>！！！不同平台下的实现不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FFeedbackContext* FWindowsPlatformApplicationMisc::GetFeedbackContext()</t>
+  </si>
+  <si>
+    <t>#if WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>static FWindowsFeedbackContext Singleton;</t>
+  </si>
+  <si>
+    <t>return &amp;Singleton;</t>
+  </si>
+  <si>
+    <t>return FPlatformOutputDevices::GetFeedbackContext();</t>
+  </si>
+  <si>
+    <t>FFeedbackContext* FGenericPlatformOutputDevices::GetFeedbackContext()</t>
+  </si>
+  <si>
+    <t>static FFeedbackContextAnsi Singleton;</t>
+  </si>
+  <si>
+    <t>class FFeedbackContextAnsi : public FFeedbackContext</t>
+  </si>
+  <si>
+    <t>void Serialize( const TCHAR* V, ELogVerbosity::Type Verbosity, const class FName&amp; Category ) override</t>
+  </si>
+  <si>
+    <t>真实的序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( !GLog-&gt;IsRedirectingTo( this ) )</t>
+  </si>
+  <si>
+    <t>GLog-&gt;Serialize( V, Verbosity, Category );</t>
+  </si>
+  <si>
+    <t>if( AuxOut )</t>
+  </si>
+  <si>
+    <t>AuxOut-&gt;Serialize( V, Verbosity, Category );</t>
+  </si>
+  <si>
+    <t>fflush( stdout );</t>
+  </si>
+  <si>
+    <t>底层还是调用GLOG打印日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString Format = Prefix + FOutputDeviceHelper::FormatLogLine(Verbosity, Category, V);</t>
+  </si>
+  <si>
+    <t>序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FFeedbackContext* FAndroidApplicationMisc::GetFeedbackContext()</t>
+  </si>
+  <si>
+    <t>static FAndroidFeedbackContext Singleton;</t>
+  </si>
+  <si>
+    <t>void FAndroidFeedbackContext::Serialize( const TCHAR* V, ELogVerbosity::Type Verbosity, const class FName&amp; Category )</t>
+  </si>
+  <si>
+    <t>直接调用的GLOG打印日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FFeedbackContext* FIOSPlatformApplicationMisc::GetFeedbackContext()</t>
+  </si>
+  <si>
+    <t>static FIOSFeedbackContext Singleton;</t>
+  </si>
+  <si>
+    <t>void FIOSFeedbackContext::Serialize( const TCHAR* V, ELogVerbosity::Type Verbosity, const class FName&amp; Category )</t>
+  </si>
+  <si>
+    <t>if (Verbosity != ELogVerbosity::Fatal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// SetColour is routed to GWarn just like the other verbosities and handled in the </t>
+  </si>
+  <si>
+    <t>// device that does the actual printing.</t>
+  </si>
+  <si>
+    <t>FOutputDevice* LogOverride = NULL;</t>
+  </si>
+  <si>
+    <t>switch (Verbosity)</t>
+  </si>
+  <si>
+    <t>case ELogVerbosity::Error:</t>
+  </si>
+  <si>
+    <t>case ELogVerbosity::Warning:</t>
+  </si>
+  <si>
+    <t>case ELogVerbosity::Display:</t>
+  </si>
+  <si>
+    <t>case ELogVerbosity::SetColor:</t>
+  </si>
+  <si>
+    <t>LogOverride = GWarn;</t>
+  </si>
+  <si>
+    <t>GROWABLE_LOGF(LogOverride</t>
+  </si>
+  <si>
+    <t>? LogOverride-&gt;Log(Category, Verbosity, Buffer)</t>
+  </si>
+  <si>
+    <t>: GLog-&gt;RedirectLog(Category, Verbosity, Buffer))</t>
+  </si>
+  <si>
+    <t>// Keep Message buffer small, in some cases, this code is executed with 16KB stack.</t>
+  </si>
+  <si>
+    <t>TCHAR Message[4096];</t>
+  </si>
+  <si>
+    <t>// Simulate Sprintf_s</t>
+  </si>
+  <si>
+    <t>// @todo: implement platform independent sprintf_S</t>
+  </si>
+  <si>
+    <t>// We're using one big shared static buffer here, so guard against re-entry</t>
+  </si>
+  <si>
+    <t>FScopeLock MsgLock(GetMsgLogfStaticBufferGuard());</t>
+  </si>
+  <si>
+    <t>// Print to a large static buffer so we can keep the stack allocation below 16K</t>
+  </si>
+  <si>
+    <t>GET_VARARGS(MsgLogfStaticBuffer, UE_ARRAY_COUNT(MsgLogfStaticBuffer), UE_ARRAY_COUNT(MsgLogfStaticBuffer) - 1, Fmt, Fmt);</t>
+  </si>
+  <si>
+    <t>// Copy the message to the stack-allocated buffer)</t>
+  </si>
+  <si>
+    <t>FCString::Strncpy(Message, MsgLogfStaticBuffer, UE_ARRAY_COUNT(Message) - 1);</t>
+  </si>
+  <si>
+    <t>Message[UE_ARRAY_COUNT(Message) - 1] = '\0';</t>
+  </si>
+  <si>
+    <t>const int32 NumStackFramesToIgnore = 1;</t>
+  </si>
+  <si>
+    <t>StaticFailDebug(TEXT("Fatal error:"), File, Line, Message, false, NumStackFramesToIgnore);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">！！！这几类走GWarn </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！否则就是GLOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！FATAL的特殊处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！非常关键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2286,11 +2483,246 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955A7CD1-440D-4AB6-86B4-2730FC798C30}">
-  <dimension ref="B4:R41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB82405-64C4-4041-BE0E-BA61C9AAF761}">
+  <dimension ref="B3:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955A7CD1-440D-4AB6-86B4-2730FC798C30}">
+  <dimension ref="A4:R41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2335,62 +2767,65 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C25" s="2" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
         <v>156</v>
       </c>
@@ -2399,14 +2834,14 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>26</v>
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>110</v>
       </c>
@@ -2462,6 +2897,356 @@
     </row>
     <row r="41" spans="5:18" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16FB23A-C679-420B-9166-A5E3E39A07BD}">
+  <dimension ref="A2:M72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>26</v>
       </c>
     </row>

--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4876695-927E-443A-B307-98E0312ECF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DEAC5B-FE77-453A-AEF8-98C9A62492B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="243">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -506,259 +506,328 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日志打印，需要在主线程里面调用才能打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOutputDeviceHelper::FormatCastAndSerializeLine(*AsyncWriter, Data, Verbosity, Category, Time, bSuppressEventTag, bAutoEmitLineTerminator);</t>
+  </si>
+  <si>
+    <t>void FOutputDeviceHelper::FormatCastAndSerializeLine(FArchive&amp; Output, const TCHAR* Data, ELogVerbosity::Type Verbosity, const class FName&amp; Category, const double Time, bool bSuppressEventTag, bool bAutoEmitLineTerminator)</t>
+  </si>
+  <si>
+    <t>FString Prefix;</t>
+  </si>
+  <si>
+    <t>if (!bSuppressEventTag)</t>
+  </si>
+  <si>
+    <t>Prefix = FormatLogLine(Verbosity, Category, nullptr, GPrintLogTimes, Time);</t>
+  </si>
+  <si>
+    <t>调用时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FOutputDeviceRedirector::SerializeImpl(const TCHAR* Data, ELogVerbosity::Type Verbosity, T&amp; Category, const double Time)</t>
+  </si>
+  <si>
+    <t>if (FPlatformTLS::GetCurrentThreadId() != MasterThreadID || LocalBufferedDevices.Num() == 0)</t>
+  </si>
+  <si>
+    <t>FScopeLock ScopeLock(&amp;BufferSynchronizationObject);</t>
+  </si>
+  <si>
+    <t>new(BufferedLines)FBufferedLine(Data, Category, Verbosity, RealTime, BufferedLinesAllocator);</t>
+  </si>
+  <si>
+    <t>// Flush previously buffered lines from secondary threads.</t>
+  </si>
+  <si>
+    <t>InternalFlushThreadedLogs(LocalBufferedDevices, LocalUnbufferedDevices, true);</t>
+  </si>
+  <si>
+    <t>for (FOutputDevice* OutputDevice : LocalBufferedDevices)</t>
+  </si>
+  <si>
+    <t>OutputDevice-&gt;Serialize(Data, Verbosity, Category, RealTime);</t>
+  </si>
+  <si>
+    <t>！！！非主线程就插入队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程的话，就刷新缓存的日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Output devices.</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("Init Output Devices");</t>
+  </si>
+  <si>
+    <t>！！！不同平台下的实现不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FFeedbackContext* FWindowsPlatformApplicationMisc::GetFeedbackContext()</t>
+  </si>
+  <si>
+    <t>#if WITH_EDITOR</t>
+  </si>
+  <si>
+    <t>static FWindowsFeedbackContext Singleton;</t>
+  </si>
+  <si>
+    <t>return &amp;Singleton;</t>
+  </si>
+  <si>
+    <t>return FPlatformOutputDevices::GetFeedbackContext();</t>
+  </si>
+  <si>
+    <t>FFeedbackContext* FGenericPlatformOutputDevices::GetFeedbackContext()</t>
+  </si>
+  <si>
+    <t>static FFeedbackContextAnsi Singleton;</t>
+  </si>
+  <si>
+    <t>class FFeedbackContextAnsi : public FFeedbackContext</t>
+  </si>
+  <si>
+    <t>void Serialize( const TCHAR* V, ELogVerbosity::Type Verbosity, const class FName&amp; Category ) override</t>
+  </si>
+  <si>
+    <t>真实的序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( !GLog-&gt;IsRedirectingTo( this ) )</t>
+  </si>
+  <si>
+    <t>GLog-&gt;Serialize( V, Verbosity, Category );</t>
+  </si>
+  <si>
+    <t>if( AuxOut )</t>
+  </si>
+  <si>
+    <t>AuxOut-&gt;Serialize( V, Verbosity, Category );</t>
+  </si>
+  <si>
+    <t>fflush( stdout );</t>
+  </si>
+  <si>
+    <t>底层还是调用GLOG打印日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString Format = Prefix + FOutputDeviceHelper::FormatLogLine(Verbosity, Category, V);</t>
+  </si>
+  <si>
+    <t>序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FFeedbackContext* FAndroidApplicationMisc::GetFeedbackContext()</t>
+  </si>
+  <si>
+    <t>static FAndroidFeedbackContext Singleton;</t>
+  </si>
+  <si>
+    <t>void FAndroidFeedbackContext::Serialize( const TCHAR* V, ELogVerbosity::Type Verbosity, const class FName&amp; Category )</t>
+  </si>
+  <si>
+    <t>直接调用的GLOG打印日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class FFeedbackContext* FIOSPlatformApplicationMisc::GetFeedbackContext()</t>
+  </si>
+  <si>
+    <t>static FIOSFeedbackContext Singleton;</t>
+  </si>
+  <si>
+    <t>void FIOSFeedbackContext::Serialize( const TCHAR* V, ELogVerbosity::Type Verbosity, const class FName&amp; Category )</t>
+  </si>
+  <si>
+    <t>if (Verbosity != ELogVerbosity::Fatal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// SetColour is routed to GWarn just like the other verbosities and handled in the </t>
+  </si>
+  <si>
+    <t>// device that does the actual printing.</t>
+  </si>
+  <si>
+    <t>FOutputDevice* LogOverride = NULL;</t>
+  </si>
+  <si>
+    <t>switch (Verbosity)</t>
+  </si>
+  <si>
+    <t>case ELogVerbosity::Error:</t>
+  </si>
+  <si>
+    <t>case ELogVerbosity::Warning:</t>
+  </si>
+  <si>
+    <t>case ELogVerbosity::Display:</t>
+  </si>
+  <si>
+    <t>case ELogVerbosity::SetColor:</t>
+  </si>
+  <si>
+    <t>LogOverride = GWarn;</t>
+  </si>
+  <si>
+    <t>GROWABLE_LOGF(LogOverride</t>
+  </si>
+  <si>
+    <t>? LogOverride-&gt;Log(Category, Verbosity, Buffer)</t>
+  </si>
+  <si>
+    <t>: GLog-&gt;RedirectLog(Category, Verbosity, Buffer))</t>
+  </si>
+  <si>
+    <t>// Keep Message buffer small, in some cases, this code is executed with 16KB stack.</t>
+  </si>
+  <si>
+    <t>TCHAR Message[4096];</t>
+  </si>
+  <si>
+    <t>// Simulate Sprintf_s</t>
+  </si>
+  <si>
+    <t>// @todo: implement platform independent sprintf_S</t>
+  </si>
+  <si>
+    <t>// We're using one big shared static buffer here, so guard against re-entry</t>
+  </si>
+  <si>
+    <t>FScopeLock MsgLock(GetMsgLogfStaticBufferGuard());</t>
+  </si>
+  <si>
+    <t>// Print to a large static buffer so we can keep the stack allocation below 16K</t>
+  </si>
+  <si>
+    <t>GET_VARARGS(MsgLogfStaticBuffer, UE_ARRAY_COUNT(MsgLogfStaticBuffer), UE_ARRAY_COUNT(MsgLogfStaticBuffer) - 1, Fmt, Fmt);</t>
+  </si>
+  <si>
+    <t>// Copy the message to the stack-allocated buffer)</t>
+  </si>
+  <si>
+    <t>FCString::Strncpy(Message, MsgLogfStaticBuffer, UE_ARRAY_COUNT(Message) - 1);</t>
+  </si>
+  <si>
+    <t>Message[UE_ARRAY_COUNT(Message) - 1] = '\0';</t>
+  </si>
+  <si>
+    <t>const int32 NumStackFramesToIgnore = 1;</t>
+  </si>
+  <si>
+    <t>StaticFailDebug(TEXT("Fatal error:"), File, Line, Message, false, NumStackFramesToIgnore);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">！！！这几类走GWarn </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！否则就是GLOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！FATAL的特殊处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！非常关键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！拼接字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOutputDeviceFile::Serialize( const TCHAR* Data, ELogVerbosity::Type Verbosity, const class FName&amp; Category, const double Time )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FOutputDeviceFile</t>
-  </si>
-  <si>
-    <t>日志打印，需要在主线程里面调用才能打印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOutputDeviceFile::Serialize( const TCHAR* Data, ELogVerbosity::Type Verbosity, const class FName&amp; Category, const double Time )</t>
-  </si>
-  <si>
-    <t>FOutputDeviceHelper::FormatCastAndSerializeLine(*AsyncWriter, Data, Verbosity, Category, Time, bSuppressEventTag, bAutoEmitLineTerminator);</t>
-  </si>
-  <si>
-    <t>void FOutputDeviceHelper::FormatCastAndSerializeLine(FArchive&amp; Output, const TCHAR* Data, ELogVerbosity::Type Verbosity, const class FName&amp; Category, const double Time, bool bSuppressEventTag, bool bAutoEmitLineTerminator)</t>
-  </si>
-  <si>
-    <t>FString Prefix;</t>
-  </si>
-  <si>
-    <t>if (!bSuppressEventTag)</t>
-  </si>
-  <si>
-    <t>Prefix = FormatLogLine(Verbosity, Category, nullptr, GPrintLogTimes, Time);</t>
-  </si>
-  <si>
-    <t>调用时机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FOutputDeviceRedirector::SerializeImpl(const TCHAR* Data, ELogVerbosity::Type Verbosity, T&amp; Category, const double Time)</t>
-  </si>
-  <si>
-    <t>if (FPlatformTLS::GetCurrentThreadId() != MasterThreadID || LocalBufferedDevices.Num() == 0)</t>
-  </si>
-  <si>
-    <t>FScopeLock ScopeLock(&amp;BufferSynchronizationObject);</t>
-  </si>
-  <si>
-    <t>new(BufferedLines)FBufferedLine(Data, Category, Verbosity, RealTime, BufferedLinesAllocator);</t>
-  </si>
-  <si>
-    <t>// Flush previously buffered lines from secondary threads.</t>
-  </si>
-  <si>
-    <t>InternalFlushThreadedLogs(LocalBufferedDevices, LocalUnbufferedDevices, true);</t>
-  </si>
-  <si>
-    <t>for (FOutputDevice* OutputDevice : LocalBufferedDevices)</t>
-  </si>
-  <si>
-    <t>OutputDevice-&gt;Serialize(Data, Verbosity, Category, RealTime);</t>
-  </si>
-  <si>
-    <t>！！！非主线程就插入队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线程的话，就刷新缓存的日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Output devices.</t>
-  </si>
-  <si>
-    <t>SCOPED_BOOT_TIMING("Init Output Devices");</t>
-  </si>
-  <si>
-    <t>！！！不同平台下的实现不一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class FFeedbackContext* FWindowsPlatformApplicationMisc::GetFeedbackContext()</t>
-  </si>
-  <si>
-    <t>#if WITH_EDITOR</t>
-  </si>
-  <si>
-    <t>static FWindowsFeedbackContext Singleton;</t>
-  </si>
-  <si>
-    <t>return &amp;Singleton;</t>
-  </si>
-  <si>
-    <t>return FPlatformOutputDevices::GetFeedbackContext();</t>
-  </si>
-  <si>
-    <t>FFeedbackContext* FGenericPlatformOutputDevices::GetFeedbackContext()</t>
-  </si>
-  <si>
-    <t>static FFeedbackContextAnsi Singleton;</t>
-  </si>
-  <si>
-    <t>class FFeedbackContextAnsi : public FFeedbackContext</t>
-  </si>
-  <si>
-    <t>void Serialize( const TCHAR* V, ELogVerbosity::Type Verbosity, const class FName&amp; Category ) override</t>
-  </si>
-  <si>
-    <t>真实的序列化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if( !GLog-&gt;IsRedirectingTo( this ) )</t>
-  </si>
-  <si>
-    <t>GLog-&gt;Serialize( V, Verbosity, Category );</t>
-  </si>
-  <si>
-    <t>if( AuxOut )</t>
-  </si>
-  <si>
-    <t>AuxOut-&gt;Serialize( V, Verbosity, Category );</t>
-  </si>
-  <si>
-    <t>fflush( stdout );</t>
-  </si>
-  <si>
-    <t>底层还是调用GLOG打印日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FString Format = Prefix + FOutputDeviceHelper::FormatLogLine(Verbosity, Category, V);</t>
-  </si>
-  <si>
-    <t>序列化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class FFeedbackContext* FAndroidApplicationMisc::GetFeedbackContext()</t>
-  </si>
-  <si>
-    <t>static FAndroidFeedbackContext Singleton;</t>
-  </si>
-  <si>
-    <t>void FAndroidFeedbackContext::Serialize( const TCHAR* V, ELogVerbosity::Type Verbosity, const class FName&amp; Category )</t>
-  </si>
-  <si>
-    <t>直接调用的GLOG打印日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class FFeedbackContext* FIOSPlatformApplicationMisc::GetFeedbackContext()</t>
-  </si>
-  <si>
-    <t>static FIOSFeedbackContext Singleton;</t>
-  </si>
-  <si>
-    <t>void FIOSFeedbackContext::Serialize( const TCHAR* V, ELogVerbosity::Type Verbosity, const class FName&amp; Category )</t>
-  </si>
-  <si>
-    <t>if (Verbosity != ELogVerbosity::Fatal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">// SetColour is routed to GWarn just like the other verbosities and handled in the </t>
-  </si>
-  <si>
-    <t>// device that does the actual printing.</t>
-  </si>
-  <si>
-    <t>FOutputDevice* LogOverride = NULL;</t>
-  </si>
-  <si>
-    <t>switch (Verbosity)</t>
-  </si>
-  <si>
-    <t>case ELogVerbosity::Error:</t>
-  </si>
-  <si>
-    <t>case ELogVerbosity::Warning:</t>
-  </si>
-  <si>
-    <t>case ELogVerbosity::Display:</t>
-  </si>
-  <si>
-    <t>case ELogVerbosity::SetColor:</t>
-  </si>
-  <si>
-    <t>LogOverride = GWarn;</t>
-  </si>
-  <si>
-    <t>GROWABLE_LOGF(LogOverride</t>
-  </si>
-  <si>
-    <t>? LogOverride-&gt;Log(Category, Verbosity, Buffer)</t>
-  </si>
-  <si>
-    <t>: GLog-&gt;RedirectLog(Category, Verbosity, Buffer))</t>
-  </si>
-  <si>
-    <t>// Keep Message buffer small, in some cases, this code is executed with 16KB stack.</t>
-  </si>
-  <si>
-    <t>TCHAR Message[4096];</t>
-  </si>
-  <si>
-    <t>// Simulate Sprintf_s</t>
-  </si>
-  <si>
-    <t>// @todo: implement platform independent sprintf_S</t>
-  </si>
-  <si>
-    <t>// We're using one big shared static buffer here, so guard against re-entry</t>
-  </si>
-  <si>
-    <t>FScopeLock MsgLock(GetMsgLogfStaticBufferGuard());</t>
-  </si>
-  <si>
-    <t>// Print to a large static buffer so we can keep the stack allocation below 16K</t>
-  </si>
-  <si>
-    <t>GET_VARARGS(MsgLogfStaticBuffer, UE_ARRAY_COUNT(MsgLogfStaticBuffer), UE_ARRAY_COUNT(MsgLogfStaticBuffer) - 1, Fmt, Fmt);</t>
-  </si>
-  <si>
-    <t>// Copy the message to the stack-allocated buffer)</t>
-  </si>
-  <si>
-    <t>FCString::Strncpy(Message, MsgLogfStaticBuffer, UE_ARRAY_COUNT(Message) - 1);</t>
-  </si>
-  <si>
-    <t>Message[UE_ARRAY_COUNT(Message) - 1] = '\0';</t>
-  </si>
-  <si>
-    <t>const int32 NumStackFramesToIgnore = 1;</t>
-  </si>
-  <si>
-    <t>StaticFailDebug(TEXT("Fatal error:"), File, Line, Message, false, NumStackFramesToIgnore);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">！！！这几类走GWarn </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！否则就是GLOG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！FATAL的特殊处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！非常关键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入到文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FOutputDeviceFile::CreateWriter(uint32 MaxAttempts)</t>
+  </si>
+  <si>
+    <t>// Open log file.</t>
+  </si>
+  <si>
+    <t>FArchive* Ar = IFileManager::Get().CreateFileWriter(Filename, WriteFlags);</t>
+  </si>
+  <si>
+    <t>打开文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AsyncWriter = new FAsyncWriter(*WriterArchive);</t>
+  </si>
+  <si>
+    <t>创建异步Writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FOutputDeviceFile::Serialize( const TCHAR* Data, ELogVerbosity::Type Verbosity, const class FName&amp; Category, const double Time )</t>
+  </si>
+  <si>
+    <t>序列化字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时写入AsyncWriter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Serialize to the destination archive</t>
+  </si>
+  <si>
+    <t>Output.Serialize(ConvertedText.GetData(), ConvertedText.Num() * sizeof(ANSICHAR));</t>
+  </si>
+  <si>
+    <t>IFileHandle* Handle = GetLowLevel().OpenWrite( Filename, !!( Flags &amp; FILEWRITE_Append ), !!( Flags &amp; FILEWRITE_AllowRead ) );</t>
+  </si>
+  <si>
+    <t>return new FArchiveFileWriterGeneric(Handle, Filename, Handle-&gt;Tell(), BufferSize, Flags);</t>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！每次写入都是写入到FArchiveFileWriterGeneric内部的Buffer里面，然后Flush的时候调用handler的Write写入到文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程主循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！不断的检测写入文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2486,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB82405-64C4-4041-BE0E-BA61C9AAF761}">
   <dimension ref="B3:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2499,7 +2568,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -2509,22 +2578,22 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
@@ -2534,30 +2603,30 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -2592,10 +2661,10 @@
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2604,10 +2673,10 @@
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -2630,12 +2699,12 @@
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.2">
@@ -2643,52 +2712,52 @@
         <v>24</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
@@ -2698,12 +2767,12 @@
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
@@ -2719,10 +2788,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955A7CD1-440D-4AB6-86B4-2730FC798C30}">
-  <dimension ref="A4:R41"/>
+  <dimension ref="A4:R89"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2744,37 +2813,37 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -2784,7 +2853,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
-        <v>151</v>
+        <v>149</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -2799,20 +2871,20 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -2822,15 +2894,15 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R30" s="3"/>
     </row>
@@ -2848,55 +2920,248 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
         <v>24</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="5:18" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C47" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D50" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D52" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C58" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C62" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C63" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>107</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2919,12 +3184,12 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2934,7 +3199,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -2952,7 +3217,7 @@
         <v>17</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2987,7 +3252,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2997,17 +3262,17 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3017,7 +3282,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3032,7 +3297,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3042,12 +3307,12 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -3057,67 +3322,67 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3127,12 +3392,12 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3142,12 +3407,12 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3157,7 +3422,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3167,7 +3432,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3182,12 +3447,12 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -3197,12 +3462,12 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3212,12 +3477,12 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
@@ -3227,7 +3492,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
@@ -3237,7 +3502,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">

--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DEAC5B-FE77-453A-AEF8-98C9A62492B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24177BA-571E-47C6-B8D0-7A1DB487FD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="日志打印" sheetId="8" r:id="rId6"/>
     <sheet name="LOG日志打印" sheetId="6" r:id="rId7"/>
     <sheet name="Display日志打印" sheetId="7" r:id="rId8"/>
+    <sheet name="自定义方式" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="264">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -828,6 +829,74 @@
   </si>
   <si>
     <t>！！！不断的检测写入文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class CORE_API FOutputDeviceDebug : public FOutputDevice</t>
+  </si>
+  <si>
+    <t>public:</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t>* Serializes the passed in data unless the current event is suppressed.</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>* @param</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Text to log</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Event name used for suppression purposes</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>virtual void Serialize(const TCHAR* Data, ELogVerbosity::Type Verbosity, const class FName&amp; Category, const double Time) override;</t>
+  </si>
+  <si>
+    <t>virtual void Serialize(const TCHAR* Data, ELogVerbosity::Type Verbosity, const class FName&amp; Category) override;</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <t>virtual bool CanBeUsedOnMultipleThreads() const override;</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>类似实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！用于在AddOutputDevice的时候判断是加入UnbufferedOutputDevices还是BufferedOutputDevices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己实现的话，就用LocalUnbufferedDevices，直接内部处理了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual bool CanBeUsedOnAnyThread() const override</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！LocalBufferedDevices才会使用到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2790,7 +2859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955A7CD1-440D-4AB6-86B4-2730FC798C30}">
   <dimension ref="A4:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
@@ -3520,4 +3589,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CEE1E6-89F0-4956-8E4E-07542CDD0190}">
+  <dimension ref="A4:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>258</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24177BA-571E-47C6-B8D0-7A1DB487FD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF72350-8D0E-4169-88B5-B96AF5F81C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="宏定义" sheetId="5" r:id="rId2"/>
-    <sheet name="日志格式化" sheetId="2" r:id="rId3"/>
-    <sheet name="写入流程" sheetId="3" r:id="rId4"/>
-    <sheet name="扩展" sheetId="4" r:id="rId5"/>
-    <sheet name="日志打印" sheetId="8" r:id="rId6"/>
-    <sheet name="LOG日志打印" sheetId="6" r:id="rId7"/>
-    <sheet name="Display日志打印" sheetId="7" r:id="rId8"/>
-    <sheet name="自定义方式" sheetId="9" r:id="rId9"/>
+    <sheet name="参数序列化" sheetId="10" r:id="rId3"/>
+    <sheet name="日志格式化" sheetId="2" r:id="rId4"/>
+    <sheet name="写入流程" sheetId="3" r:id="rId5"/>
+    <sheet name="扩展" sheetId="4" r:id="rId6"/>
+    <sheet name="日志打印" sheetId="8" r:id="rId7"/>
+    <sheet name="LOG日志打印" sheetId="6" r:id="rId8"/>
+    <sheet name="Display日志打印" sheetId="7" r:id="rId9"/>
+    <sheet name="自定义方式" sheetId="9" r:id="rId10"/>
+    <sheet name="自动删除" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="316">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -897,6 +899,167 @@
   </si>
   <si>
     <t>！！！LocalBufferedDevices才会使用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMaintenance::DeleteOldLogs();</t>
+  </si>
+  <si>
+    <t>#define UE_LOG(CategoryName, Verbosity, Format, ...)</t>
+  </si>
+  <si>
+    <t>template &lt;typename FmtType, typename... Types&gt;</t>
+  </si>
+  <si>
+    <t>static void Logf_Internal(const ANSICHAR* File, int32 Line, const FLogCategoryName&amp; Category, ELogVerbosity::Type Verbosity, const FmtType&amp; Fmt, Types... Args)</t>
+  </si>
+  <si>
+    <t>Logf_InternalImpl(File, Line, Category, Verbosity, Fmt, Args...);</t>
+  </si>
+  <si>
+    <t>内部进行了参数序列化处理Format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接在调用线程做得序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Pulled the two FOutputDevice::Logf functions into shared code. Needs to be a #define</t>
+  </si>
+  <si>
+    <t>// since it uses GET_VARARGS_RESULT which uses the va_list stuff which operates on the</t>
+  </si>
+  <si>
+    <t>// current function, so we can't easily call a function</t>
+  </si>
+  <si>
+    <t>#define GROWABLE_LOGF(SerializeFunc) \</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>BufferSize</t>
+  </si>
+  <si>
+    <t>= 1024; \</t>
+  </si>
+  <si>
+    <t>TCHAR*</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>= NULL; \</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>= -1; \</t>
+  </si>
+  <si>
+    <t>/* allocate some stack space to use on the first pass, which matches most strings */ \</t>
+  </si>
+  <si>
+    <t>TCHAR</t>
+  </si>
+  <si>
+    <t>StackBuffer[512]; \</t>
+  </si>
+  <si>
+    <t>AllocatedBuffer = NULL; \</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>/* first, try using the stack buffer */ \</t>
+  </si>
+  <si>
+    <t>Buffer = StackBuffer; \</t>
+  </si>
+  <si>
+    <t>GET_VARARGS_RESULT( Buffer, UE_ARRAY_COUNT(StackBuffer), UE_ARRAY_COUNT(StackBuffer) - 1, Fmt, Fmt, Result ); \</t>
+  </si>
+  <si>
+    <t>/* if that fails, then use heap allocation to make enough space */ \</t>
+  </si>
+  <si>
+    <t>while(Result == -1) \</t>
+  </si>
+  <si>
+    <t>{ \</t>
+  </si>
+  <si>
+    <t>FMemory::SystemFree(AllocatedBuffer); \</t>
+  </si>
+  <si>
+    <t>/* We need to use malloc here directly as GMalloc might not be safe. */ \</t>
+  </si>
+  <si>
+    <t>Buffer = AllocatedBuffer = (TCHAR*) FMemory::SystemMalloc( BufferSize * sizeof(TCHAR) ); \</t>
+  </si>
+  <si>
+    <t>if (Buffer == NULL) \</t>
+  </si>
+  <si>
+    <t>return; \</t>
+  </si>
+  <si>
+    <t>} \</t>
+  </si>
+  <si>
+    <t>GET_VARARGS_RESULT( Buffer, BufferSize, BufferSize-1, Fmt, Fmt, Result ); \</t>
+  </si>
+  <si>
+    <t>BufferSize *= 2; \</t>
+  </si>
+  <si>
+    <t>}; \</t>
+  </si>
+  <si>
+    <t>Buffer[Result] = 0; \</t>
+  </si>
+  <si>
+    <t>; \</t>
+  </si>
+  <si>
+    <t>SerializeFunc; \</t>
+  </si>
+  <si>
+    <t>FMemory::SystemFree(AllocatedBuffer);</t>
+  </si>
+  <si>
+    <t>使用宏进行的参数序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// if a logging build, clear out old log files. Avoid races when multiple processes are running at once.</t>
+  </si>
+  <si>
+    <t>#if !NO_LOGGING</t>
+  </si>
+  <si>
+    <t>if (!FParse::Param(FCommandLine::Get(), TEXT("MULTIPROCESS")))</t>
+  </si>
+  <si>
+    <t>检测是否进行日志删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FMaintenance::DeleteOldLogs()</t>
+  </si>
+  <si>
+    <t>GConfig-&gt;GetInt(TEXT("LogFiles"), TEXT("PurgeLogsDays"), PurgeLogsDays, GEngineIni);</t>
+  </si>
+  <si>
+    <t>GConfig-&gt;GetInt(TEXT("LogFiles"), TEXT("MaxLogFilesOnDisk"), MaxLogFilesOnDisk, GEngineIni);</t>
+  </si>
+  <si>
+    <t>获取最大天数+最多日志个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1527,6 +1690,218 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CEE1E6-89F0-4956-8E4E-07542CDD0190}">
+  <dimension ref="A4:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>258</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FFC9CB-8C10-4B04-9006-ADC73FBD03FD}">
+  <dimension ref="B3:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3928A6AC-5804-4E8E-A541-865634486027}">
   <dimension ref="B3:O46"/>
@@ -1711,349 +2086,255 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:V59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63084608-55DA-4BF2-85A6-D66DC19FA167}">
+  <dimension ref="B2:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="G12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>275</v>
+      </c>
       <c r="E21" t="s">
-        <v>58</v>
-      </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="4:22" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="F21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" t="s">
+        <v>279</v>
+      </c>
+      <c r="G22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="4:22" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="E23" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>284</v>
+      </c>
       <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
-        <v>63</v>
-      </c>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
-        <v>58</v>
-      </c>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-    </row>
-    <row r="31" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>26</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2064,6 +2345,359 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:V59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE46BEE7-F6CA-4468-8FB3-9B211D4C60B5}">
   <dimension ref="B3:S71"/>
   <sheetViews>
@@ -2436,7 +3070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACBD152-FA50-4AFC-9158-0F011644CA3F}">
   <dimension ref="B4:P29"/>
   <sheetViews>
@@ -2620,7 +3254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB82405-64C4-4041-BE0E-BA61C9AAF761}">
   <dimension ref="B3:O42"/>
   <sheetViews>
@@ -2855,7 +3489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955A7CD1-440D-4AB6-86B4-2730FC798C30}">
   <dimension ref="A4:R89"/>
   <sheetViews>
@@ -3241,7 +3875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16FB23A-C679-420B-9166-A5E3E39A07BD}">
   <dimension ref="A2:M72"/>
   <sheetViews>
@@ -3589,135 +4223,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CEE1E6-89F0-4956-8E4E-07542CDD0190}">
-  <dimension ref="A4:K25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>248</v>
-      </c>
-      <c r="D13" t="s">
-        <v>251</v>
-      </c>
-      <c r="E13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>257</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>258</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF72350-8D0E-4169-88B5-B96AF5F81C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E8291-4D17-40A1-96BE-DF1D36A79D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Display日志打印" sheetId="7" r:id="rId9"/>
     <sheet name="自定义方式" sheetId="9" r:id="rId10"/>
     <sheet name="自动删除" sheetId="11" r:id="rId11"/>
+    <sheet name="配置原理" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="335">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -1061,13 +1062,79 @@
   <si>
     <t>获取最大天数+最多日志个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在UE项目目录./Config/DefaultEngine.ini或者Engine.ini中设置</t>
+  </si>
+  <si>
+    <t>[Core.Log]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global=log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual void ProcessConfigAndCommandLine()</t>
+  </si>
+  <si>
+    <t>先根据配置文件，一次性吧所有的配置读进来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// and then the compiled in defaults are overridden with those</t>
+  </si>
+  <si>
+    <t>for (TMultiMap&lt;FName, FLogCategoryBase*&gt;::TIterator It(ReverseAssociations); It; ++It)</t>
+  </si>
+  <si>
+    <t>SetupSuppress(It.Value(), It.Key());</t>
+  </si>
+  <si>
+    <t>挨个修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于全局的global，就存入到BootGlobal里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统默认有自己的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先从BootAssociations找自己的，找到了就设置（就是单独配置了就直接设置，等于跳过GLOBAL）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有配置，就看BootGlobal默认配置的是多少，将自己设置为对应的数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInit(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>const int32 rv1 = PreInitPreStartupScreen(CmdLine);</t>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>if (!AppInit())</t>
+  </si>
+  <si>
+    <t>FLogSuppressionInterface::Get().ProcessConfigAndCommandLine();</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,6 +1173,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1127,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1138,6 +1211,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1825,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FFC9CB-8C10-4B04-9006-ADC73FBD03FD}">
   <dimension ref="B3:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -1899,6 +1973,178 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C09388-D82E-4666-AC2B-EE741BA781AC}">
+  <dimension ref="A4:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E8291-4D17-40A1-96BE-DF1D36A79D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEEBC96-361A-41C8-BC72-2C1ABE792AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="自定义方式" sheetId="9" r:id="rId10"/>
     <sheet name="自动删除" sheetId="11" r:id="rId11"/>
     <sheet name="配置原理" sheetId="12" r:id="rId12"/>
+    <sheet name="global的坑" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="350">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -1128,13 +1129,111 @@
   </si>
   <si>
     <t>FLogSuppressionInterface::Get().ProcessConfigAndCommandLine();</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一般通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>global</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启了非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fatal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>得日志，很大概率会出问题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UObject::CanCheckDefaultSubObjects(bool bForceCheck, bool&amp; bResult) const</t>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数bForcheck都是FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bCanCheck = bCanCheck &amp;&amp; (bForceCheck || UE_LOG_ACTIVE(LogCheckSubobjects, Error));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！通过GLOBAL设置后LogCheckSubobjects也被设置了，等于这个判断就会走进去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// if this is set to fatal, then we don't run any testing since it is time consuming.</t>
+  </si>
+  <si>
+    <t>DEFINE_LOG_CATEGORY_STATIC(LogCheckSubobjects, Fatal, All);</t>
+  </si>
+  <si>
+    <t>#define CompCheck(Pred) \</t>
+  </si>
+  <si>
+    <t>if (!(Pred)) \</t>
+  </si>
+  <si>
+    <t>Result = false; \</t>
+  </si>
+  <si>
+    <t>UE_DEBUG_BREAK(); \</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogCheckSubobjects, Log, TEXT("CompCheck %s failed."), TEXT(#Pred)); \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+  </si>
+  <si>
+    <t>默认设置是FATAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,6 +1278,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1200,7 +1326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1212,6 +1338,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1980,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C09388-D82E-4666-AC2B-EE741BA781AC}">
   <dimension ref="A4:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2139,6 +2266,117 @@
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF70C2DD-D3C2-40FC-8404-E4E3894267DD}">
+  <dimension ref="A4:M29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>339</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEEBC96-361A-41C8-BC72-2C1ABE792AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25D787-8D6B-4927-B080-C77DA1E7619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="自动删除" sheetId="11" r:id="rId11"/>
     <sheet name="配置原理" sheetId="12" r:id="rId12"/>
     <sheet name="global的坑" sheetId="13" r:id="rId13"/>
+    <sheet name="自定义日志名字" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="362">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -1053,9 +1054,6 @@
   </si>
   <si>
     <t>void FMaintenance::DeleteOldLogs()</t>
-  </si>
-  <si>
-    <t>GConfig-&gt;GetInt(TEXT("LogFiles"), TEXT("PurgeLogsDays"), PurgeLogsDays, GEngineIni);</t>
   </si>
   <si>
     <t>GConfig-&gt;GetInt(TEXT("LogFiles"), TEXT("MaxLogFilesOnDisk"), MaxLogFilesOnDisk, GEngineIni);</t>
@@ -1226,6 +1224,52 @@
   </si>
   <si>
     <t>默认设置是FATAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GConfig-&gt;GetInt(TEXT("LogFiles"), TEXT("PurgeLogsDays"), PurgeLogsDays, GEngineIni);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString WriterName = FString::Printf(TEXT("FAsyncWriter_%s"), *FPaths::GetBaseFilename(Ar.GetArchiveName()));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义日志名字，尤其重要，因为后续DS的日志需要汇报统计，需要按照一定的策略设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动命令行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (FParse::Value(FCommandLine::Get(), TEXT("ABSLOG="), LogFilename, bShouldStopOnSeparator))</t>
+  </si>
+  <si>
+    <t>CachedAbsoluteFilename[0] = 0;</t>
+  </si>
+  <si>
+    <t>游戏内设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FOutputDeviceFile::SetFilename(const TCHAR* InFilename)</t>
+  </si>
+  <si>
+    <t>// Close any existing file.</t>
+  </si>
+  <si>
+    <t>TearDown();</t>
+  </si>
+  <si>
+    <t>FCString::Strncpy( Filename, InFilename, UE_ARRAY_COUNT(Filename) );</t>
+  </si>
+  <si>
+    <t>！！！最好能启动的设置命令行设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!FParse::Value(FCommandLine::Get(), TEXT("LOG="), LogFilename, bShouldStopOnSeparator))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2027,7 +2071,7 @@
   <dimension ref="B3:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2084,17 +2128,17 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2107,50 +2151,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C09388-D82E-4666-AC2B-EE741BA781AC}">
   <dimension ref="A4:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2160,22 +2204,22 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
@@ -2225,32 +2269,32 @@
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
@@ -2260,7 +2304,7 @@
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
@@ -2279,7 +2323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF70C2DD-D3C2-40FC-8404-E4E3894267DD}">
   <dimension ref="A4:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2287,27 +2331,27 @@
   <sheetData>
     <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -2315,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -2323,35 +2367,35 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>338</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
@@ -2361,28 +2405,140 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC2A601-D51E-46DC-9EAF-68B4B51529F7}">
+  <dimension ref="B4:R28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>361</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3185,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE46BEE7-F6CA-4468-8FB3-9B211D4C60B5}">
   <dimension ref="B3:S71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3390,7 +3546,7 @@
     <row r="47" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3742,7 +3898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB82405-64C4-4041-BE0E-BA61C9AAF761}">
   <dimension ref="B3:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25D787-8D6B-4927-B080-C77DA1E7619B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF26725-26AD-420A-B07E-E59C10937AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="配置原理" sheetId="12" r:id="rId12"/>
     <sheet name="global的坑" sheetId="13" r:id="rId13"/>
     <sheet name="自定义日志名字" sheetId="14" r:id="rId14"/>
+    <sheet name="命令行" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="417">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -1271,6 +1272,171 @@
   <si>
     <t>if (!FParse::Value(FCommandLine::Get(), TEXT("LOG="), LogFilename, bShouldStopOnSeparator))</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Console commands, see embeded usage statement **/</t>
+  </si>
+  <si>
+    <t>virtual bool Exec( UWorld* Inworld, const TCHAR* Cmd, FOutputDevice&amp; Ar )</t>
+  </si>
+  <si>
+    <t>if(FParse::Command(&amp;Cmd,TEXT("LOG")))</t>
+  </si>
+  <si>
+    <t>if(FParse::Command(&amp;Cmd,TEXT("LIST"))) // if they didn't use the list command, we will show usage</t>
+  </si>
+  <si>
+    <t>TArray&lt;FLogCategoryPtrs&gt; Found;</t>
+  </si>
+  <si>
+    <t>FString Cat(FParse::Token(Cmd, 0));</t>
+  </si>
+  <si>
+    <t>for (TPair&lt;FName, FLogCategoryBase*&gt; It : ReverseAssociations)</t>
+  </si>
+  <si>
+    <t>FLogCategoryBase* Verb = It.Value;</t>
+  </si>
+  <si>
+    <t>FString Name = It.Key.ToString();</t>
+  </si>
+  <si>
+    <t>if (!Cat.Len() || Name.Contains(Cat) )</t>
+  </si>
+  <si>
+    <t>Found.Add(FLogCategoryPtrs(Name, ELogVerbosity::Type(Verb-&gt;Verbosity), Verb-&gt;DebugBreakOnLog));</t>
+  </si>
+  <si>
+    <t>Found.Sort();</t>
+  </si>
+  <si>
+    <t>for (TArray&lt;FLogCategoryPtrs&gt;::TConstIterator It = Found.CreateConstIterator(); It; ++It)</t>
+  </si>
+  <si>
+    <t>Ar.Logf(TEXT("%-40s  %-12s  %s"), *It-&gt;Name, ToString(It-&gt;Verbosity), It-&gt;Postfix ? TEXT(" - DebugBreak") : TEXT(""));</t>
+  </si>
+  <si>
+    <t>else if (Cmd[0] != '.')</t>
+  </si>
+  <si>
+    <t>FString Rest(Cmd);</t>
+  </si>
+  <si>
+    <t>Rest.TrimStartInline();</t>
+  </si>
+  <si>
+    <t>if (Rest.Len())</t>
+  </si>
+  <si>
+    <t>if (ProcessLogOnly(Rest, Ar))</t>
+  </si>
+  <si>
+    <t>TMap&lt;FName, uint8&gt; OldValues;</t>
+  </si>
+  <si>
+    <t>OldValues.Reserve(ReverseAssociations.Num());</t>
+  </si>
+  <si>
+    <t>for (TPair&lt;FName, FLogCategoryBase*&gt; Pair : ReverseAssociations)</t>
+  </si>
+  <si>
+    <t>FLogCategoryBase* Verb = Pair.Value;</t>
+  </si>
+  <si>
+    <t>FName Name = Pair.Key;</t>
+  </si>
+  <si>
+    <t>OldValues.Add(Name, Verb-&gt;Verbosity);</t>
+  </si>
+  <si>
+    <t>ProcessCmdString(Rest);</t>
+  </si>
+  <si>
+    <t>uint8 OldValue = OldValues.FindRef(Name);</t>
+  </si>
+  <si>
+    <t>if (Verb-&gt;Verbosity != OldValue)</t>
+  </si>
+  <si>
+    <t>Ar.Logf(TEXT("%-40s  %-12s  %s"), *Name.ToString(), ToString(ELogVerbosity::Type(Verb-&gt;Verbosity)), Verb-&gt;DebugBreakOnLog ? TEXT(" - DebugBreak") : TEXT(""));</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("------- Log conventions") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("[cat]   = a category for the command to operate on, or 'global' for all categories.") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("[level] = verbosity level, one of: none, error, warning, display, log, verbose, all, default") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("At boot time, compiled in default is overridden by ini files setting, which is overridden by command line") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("------- Log console command usage") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("Log list            - list all log categories") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("Log list [string]   - list all log categories containing a substring") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("Log reset           - reset all log categories to their boot-time default") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("Log [cat]           - toggle the display of the category [cat]") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("Log [cat] off       - disable display of the category [cat]") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("Log [cat] on        - resume display of the category [cat]") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("Log [cat] only      - enables [cat] and disables all other categories"));</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("Log [cat] [level]   - set the verbosity level of the category [cat]") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("Log [cat] break     - toggle the debug break on display of the category [cat]") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("------- Log command line") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("-LogCmds=\"[arguments],[arguments]...\"           - applies a list of console commands at boot time") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("-LogCmds=\"foo verbose, bar off\"         - turns on the foo category and turns off the bar category") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("------- Environment variables") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("Any command line option can be set via the environment variable UE-CmdLineArgs") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("set UE-CmdLineArgs=\"-LogCmds=foo verbose breakon, bar off\"") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("------- Config file") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("[Core.Log]") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("global=[default verbosity for things not listed later]") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("[cat]=[level]") );</t>
+  </si>
+  <si>
+    <t>Ar.Logf( TEXT("foo=verbose break") );</t>
+  </si>
+  <si>
+    <t>return false;</t>
   </si>
 </sst>
 </file>
@@ -2434,7 +2600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC2A601-D51E-46DC-9EAF-68B4B51529F7}">
   <dimension ref="B4:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -2539,6 +2705,468 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAC0624-F7CF-4786-A6B7-6B8F3A7F09D9}">
+  <dimension ref="B3:I96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I59" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF26725-26AD-420A-B07E-E59C10937AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B8B08B-0701-4455-BD46-70ADEDDF9607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="global的坑" sheetId="13" r:id="rId13"/>
     <sheet name="自定义日志名字" sheetId="14" r:id="rId14"/>
     <sheet name="命令行" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="428">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -1437,6 +1438,39 @@
   </si>
   <si>
     <t>return false;</t>
+  </si>
+  <si>
+    <t>if (UE_LOG_ACTIVE(LogPartyBeacon, Verbose))</t>
+  </si>
+  <si>
+    <t>FORCEINLINE bool IsSuppressed(ELogVerbosity::Type VerbosityLevel) const</t>
+  </si>
+  <si>
+    <t>if ((VerbosityLevel &amp; ELogVerbosity::VerbosityMask) &lt;= Verbosity)</t>
+  </si>
+  <si>
+    <t>template &lt;int32 VerbosityToCheck, typename CategoryType&gt;</t>
+  </si>
+  <si>
+    <t>FORCEINLINE</t>
+  </si>
+  <si>
+    <t>typename TEnableIf&lt;</t>
+  </si>
+  <si>
+    <t>((VerbosityToCheck &amp; ELogVerbosity::VerbosityMask) &lt;= CategoryType::CompileTimeVerbosity &amp;&amp;</t>
+  </si>
+  <si>
+    <t>(VerbosityToCheck &amp; ELogVerbosity::VerbosityMask) &lt;= ELogVerbosity::COMPILED_IN_MINIMUM_VERBOSITY),</t>
+  </si>
+  <si>
+    <t>bool&gt;::Type</t>
+  </si>
+  <si>
+    <t>IsLogActive(const CategoryType&amp; Category)</t>
+  </si>
+  <si>
+    <t>return !Category.IsSuppressed((ELogVerbosity::Type)VerbosityToCheck);</t>
   </si>
 </sst>
 </file>
@@ -2712,7 +2746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAC0624-F7CF-4786-A6B7-6B8F3A7F09D9}">
   <dimension ref="B3:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -3161,6 +3195,118 @@
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356BD431-9DB7-45A9-B9BC-4700A29E2F8F}">
+  <dimension ref="B6:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B8B08B-0701-4455-BD46-70ADEDDF9607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5D349D-A3D9-4E99-8B4D-2ED8EEE61BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="自定义日志名字" sheetId="14" r:id="rId14"/>
     <sheet name="命令行" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="446">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -1471,6 +1472,61 @@
   </si>
   <si>
     <t>return !Category.IsSuppressed((ELogVerbosity::Type)VerbosityToCheck);</t>
+  </si>
+  <si>
+    <t>ELogVerbosity::COMPILED_IN_MINIMUM_VERBOSITY</t>
+  </si>
+  <si>
+    <t>最好可配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define UE_LOG(CategoryName, Verbosity, Format, ...) \</t>
+  </si>
+  <si>
+    <t>static_assert(TIsArrayOrRefOfType&lt;decltype(Format), TCHAR&gt;::Value, "Formatting string must be a TCHAR array."); \</t>
+  </si>
+  <si>
+    <t>static_assert((ELogVerbosity::Verbosity &amp; ELogVerbosity::VerbosityMask) &lt; ELogVerbosity::NumVerbosity &amp;&amp; ELogVerbosity::Verbosity &gt; 0, "Verbosity must be constant and in range."); \</t>
+  </si>
+  <si>
+    <t>CA_CONSTANT_IF((ELogVerbosity::Verbosity &amp; ELogVerbosity::VerbosityMask) &lt;= ELogVerbosity::COMPILED_IN_MINIMUM_VERBOSITY &amp;&amp; (ELogVerbosity::Warning &amp; ELogVerbosity::VerbosityMask) &lt;= FLogCategory##CategoryName::CompileTimeVerbosity) \</t>
+  </si>
+  <si>
+    <t>UE_LOG_EXPAND_IS_FATAL(Verbosity, PREPROCESSOR_NOTHING, if (!CategoryName.IsSuppressed(ELogVerbosity::Verbosity))) \</t>
+  </si>
+  <si>
+    <t>auto UE_LOG_noinline_lambda = [](const auto&amp; LCategoryName, const auto&amp; LFormat, const auto&amp;... UE_LOG_Args) FORCENOINLINE \</t>
+  </si>
+  <si>
+    <t>TRACE_LOG_MESSAGE(LCategoryName, Verbosity, LFormat, UE_LOG_Args...) \</t>
+  </si>
+  <si>
+    <t>UE_LOG_EXPAND_IS_FATAL(Verbosity, \</t>
+  </si>
+  <si>
+    <t>FMsg::Logf_Internal(UE_LOG_SOURCE_FILE(__FILE__), __LINE__, LCategoryName.GetCategoryName(), ELogVerbosity::Verbosity, LFormat, UE_LOG_Args...); \</t>
+  </si>
+  <si>
+    <t>_DebugBreakAndPromptForRemote(); \</t>
+  </si>
+  <si>
+    <t>FDebug::ProcessFatalError(); \</t>
+  </si>
+  <si>
+    <t>}, \</t>
+  </si>
+  <si>
+    <t>FMsg::Logf_Internal(nullptr, 0, LCategoryName.GetCategoryName(), ELogVerbosity::Verbosity, LFormat, UE_LOG_Args...); \</t>
+  </si>
+  <si>
+    <t>) \</t>
+  </si>
+  <si>
+    <t>UE_LOG_noinline_lambda(CategoryName, Format, ##__VA_ARGS__); \</t>
+  </si>
+  <si>
+    <t>UE_LOG_EXPAND_IS_FATAL(Verbosity, CA_ASSUME(false);, PREPROCESSOR_NOTHING) \</t>
   </si>
 </sst>
 </file>
@@ -3208,7 +3264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356BD431-9DB7-45A9-B9BC-4700A29E2F8F}">
   <dimension ref="B6:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -3306,6 +3362,168 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7C818-8D36-46DE-9223-3F2B0C019A12}">
+  <dimension ref="B3:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>26</v>
       </c>
     </row>

--- a/doc/ue_log.xlsx
+++ b/doc/ue_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5D349D-A3D9-4E99-8B4D-2ED8EEE61BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5963AEB-4B0D-4B13-A5BC-E679E1DD79C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" firstSheet="1" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" firstSheet="2" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="命令行" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
     <sheet name="Sheet2" sheetId="17" r:id="rId17"/>
+    <sheet name="启动时重命名" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="459">
   <si>
     <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize()"));</t>
   </si>
@@ -1527,6 +1528,45 @@
   </si>
   <si>
     <t>UE_LOG_EXPAND_IS_FATAL(Verbosity, CA_ASSUME(false);, PREPROCESSOR_NOTHING) \</t>
+  </si>
+  <si>
+    <t>/** if the passed in file exists, makes a timestamped backup copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @param Filename the name of the file to check</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>void FOutputDeviceFile::CreateBackupCopy(const TCHAR* Filename)</t>
+  </si>
+  <si>
+    <t>IFileManager&amp; FileManager = IFileManager::Get();</t>
+  </si>
+  <si>
+    <t>if (FileManager.FileSize(Filename) &gt; 0) // file exists and is not empty</t>
+  </si>
+  <si>
+    <t>FString Name, Extension;</t>
+  </si>
+  <si>
+    <t>FString(Filename).Split(TEXT("."), &amp;Name, &amp;Extension, ESearchCase::CaseSensitive, ESearchDir::FromEnd);</t>
+  </si>
+  <si>
+    <t>FDateTime OriginalTime = FileManager.GetTimeStamp(Filename);</t>
+  </si>
+  <si>
+    <t>FString BackupFilename = FString::Printf(TEXT("%s%s%s.%s"), *Name, BACKUP_LOG_FILENAME_POSTFIX, *OriginalTime.ToString(), *Extension);</t>
+  </si>
+  <si>
+    <t>if (FileManager.Copy(*BackupFilename, Filename, false) == COPY_OK)</t>
+  </si>
+  <si>
+    <t>FileManager.SetTimeStamp(*BackupFilename, OriginalTime);</t>
+  </si>
+  <si>
+    <t>// We use Copy + SetTimeStamp instead of Move because caller might want to append to original log file.</t>
   </si>
 </sst>
 </file>
@@ -3376,7 +3416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7C818-8D36-46DE-9223-3F2B0C019A12}">
   <dimension ref="B3:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -3531,6 +3571,117 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEAAE3E-C904-4A01-A1D9-E9C3B2B595E4}">
+  <dimension ref="B7:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
